--- a/resources/variants/В1.xlsx
+++ b/resources/variants/В1.xlsx
@@ -7,8 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -225,7 +223,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -521,9 +519,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -531,39 +529,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
       </a:majorFont>
@@ -573,7 +571,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,70 +580,76 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -681,46 +685,38 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -733,13 +729,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col bestFit="1" min="22" max="22" width="10.421875"/>
-  </cols>
   <sheetData>
     <row r="1" ht="103.5">
       <c r="A1" s="1" t="s">
@@ -1049,67 +1042,10 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" ht="17.25"/>
-    <row r="19" ht="17.25"/>
-    <row r="20" ht="17.25"/>
-    <row r="21" ht="17.25"/>
-    <row r="22" ht="17.25"/>
-    <row r="23" ht="17.25"/>
-    <row r="24" ht="17.25"/>
-    <row r="25" ht="17.25"/>
-    <row r="26" ht="14.25"/>
-    <row r="27" ht="14.25"/>
-    <row r="28" ht="14.25"/>
-    <row r="29" ht="14.25"/>
-    <row r="30" ht="14.25"/>
-    <row r="31" ht="14.25"/>
-    <row r="32" ht="14.25"/>
-    <row r="33" ht="14.25"/>
-    <row r="34" ht="14.25"/>
-    <row r="35" ht="14.25"/>
-    <row r="36" ht="14.25"/>
-    <row r="37" ht="14.25"/>
-    <row r="38" ht="14.25"/>
-    <row r="39" ht="14.25"/>
-    <row r="40" ht="14.25"/>
-    <row r="41" ht="14.25"/>
-    <row r="42" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="180" verticalDpi="180" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="180" verticalDpi="180" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="180" verticalDpi="180" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/resources/variants/В1.xlsx
+++ b/resources/variants/В1.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="12" windowWidth="20952" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t xml:space="preserve">№ п/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шифр работ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер отделения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Число людей, выполняющих работы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продолжительность работ (час)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Шифр работ</t>
+  </si>
+  <si>
+    <t>Номер отделения</t>
+  </si>
+  <si>
+    <t>Число людей, выполняющих работы</t>
+  </si>
+  <si>
+    <t>Продолжительность работ (час)</t>
   </si>
   <si>
     <t>Прим.</t>
@@ -166,16 +167,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
       <name val="Times New Roman"/>
-      <sz val="14.000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,19 +212,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -235,291 +236,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -722,19 +440,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" ht="103.5">
+    <row r="1" spans="1:6" ht="108" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,79 +474,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.25">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="17.25">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" ht="17.25">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" ht="17.25">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" ht="17.25">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -844,7 +564,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" ht="17.25">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -862,7 +582,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" ht="17.25">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -880,7 +600,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" ht="17.25">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -898,7 +618,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" ht="17.25">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -916,7 +636,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" ht="17.25">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -934,7 +654,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" ht="17.25">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -952,7 +672,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" ht="17.25">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -970,7 +690,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" ht="17.25">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -988,7 +708,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" ht="17.25">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1006,7 +726,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" ht="17.25">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1024,7 +744,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" ht="17.25">
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1043,9 +763,7 @@
       <c r="F17" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/variants/В1.xlsx
+++ b/resources/variants/В1.xlsx
@@ -357,7 +357,7 @@
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="E8" activeCellId="0" sqref="E8"/>
@@ -735,7 +735,28 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1"/>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/variants/В1.xlsx
+++ b/resources/variants/В1.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -357,7 +357,7 @@
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="E8" activeCellId="0" sqref="E8"/>
@@ -735,28 +735,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
+    <row r="17" ht="18" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
